--- a/professions.xlsx
+++ b/professions.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Zomboid\mods\DubsProfessionMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CAC010-7A9B-460A-B4F0-DBA39C731F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E308AE-FF10-4EC6-B927-6728B937253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19425" yWindow="-1605" windowWidth="17190" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DPM Balancing" sheetId="1" r:id="rId1"/>
+    <sheet name="Vanilla Balancing" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Points" comment="Points are defined by the type of profession, points serve as a ranking tool based on the amount of training/education/experience on average needed to become an expert">Sheet1!#REF!</definedName>
+    <definedName name="Points" comment="Points are defined by the type of profession, points serve as a ranking tool based on the amount of training/education/experience on average needed to become an expert">'DPM Balancing'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="162">
   <si>
     <t>Professions</t>
   </si>
@@ -426,14 +449,110 @@
     <t>Writer</t>
   </si>
   <si>
-    <t>Items</t>
+    <t>In-Game Skill</t>
+  </si>
+  <si>
+    <t>Lightfooted</t>
+  </si>
+  <si>
+    <t>Sneaking</t>
+  </si>
+  <si>
+    <t>Long Blunt</t>
+  </si>
+  <si>
+    <t>Short Blunt</t>
+  </si>
+  <si>
+    <t>Long Blade</t>
+  </si>
+  <si>
+    <t>Short Blade</t>
+  </si>
+  <si>
+    <t>Carpentry</t>
+  </si>
+  <si>
+    <t>First Aid</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Metalworking</t>
+  </si>
+  <si>
+    <t>Foraging</t>
+  </si>
+  <si>
+    <t>Lua Skill</t>
+  </si>
+  <si>
+    <t>Numble</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Level 7</t>
+  </si>
+  <si>
+    <t>Level 8</t>
+  </si>
+  <si>
+    <t>Level 9</t>
+  </si>
+  <si>
+    <t>Level 10</t>
+  </si>
+  <si>
+    <t>Name Mappings</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Skill Type</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Crafting</t>
+  </si>
+  <si>
+    <t>Level 0</t>
+  </si>
+  <si>
+    <t>Skill Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +573,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,11 +616,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -486,14 +640,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,12 +685,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
+    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH109"/>
+  <dimension ref="A1:BI109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E85" sqref="E2:E85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,19 +1000,34 @@
     <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" customWidth="1"/>
-    <col min="11" max="21" width="10.77734375" customWidth="1"/>
-    <col min="23" max="23" width="15.109375" customWidth="1"/>
-    <col min="26" max="26" width="13.77734375" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" customWidth="1"/>
-    <col min="28" max="28" width="8.44140625" customWidth="1"/>
-    <col min="29" max="32" width="12.77734375" customWidth="1"/>
-    <col min="34" max="34" width="26.6640625" customWidth="1"/>
+    <col min="6" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="15" max="37" width="10.77734375" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="15.109375" customWidth="1"/>
+    <col min="41" max="41" width="10.77734375" customWidth="1"/>
+    <col min="43" max="43" width="10.77734375" customWidth="1"/>
+    <col min="45" max="45" width="10.77734375" customWidth="1"/>
+    <col min="46" max="46" width="13.77734375" customWidth="1"/>
+    <col min="47" max="47" width="10.77734375" customWidth="1"/>
+    <col min="48" max="48" width="12.77734375" customWidth="1"/>
+    <col min="49" max="49" width="10.77734375" customWidth="1"/>
+    <col min="50" max="50" width="8.44140625" customWidth="1"/>
+    <col min="51" max="51" width="10.77734375" customWidth="1"/>
+    <col min="52" max="52" width="12.77734375" customWidth="1"/>
+    <col min="53" max="53" width="10.77734375" customWidth="1"/>
+    <col min="54" max="54" width="12.77734375" customWidth="1"/>
+    <col min="55" max="55" width="10.77734375" customWidth="1"/>
+    <col min="56" max="56" width="12.77734375" customWidth="1"/>
+    <col min="57" max="57" width="10.77734375" customWidth="1"/>
+    <col min="58" max="58" width="12.77734375" customWidth="1"/>
+    <col min="59" max="59" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -835,97 +1046,178 @@
       <c r="F1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="S1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="W1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="AA1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AG1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AI1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AK1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AM1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AO1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AS1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AU1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AW1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="BA1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="BC1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="BE1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="BG1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AH1" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="BI1" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <f>SUM(F2:AG2)</f>
+        <f t="shared" ref="B2:B33" si="0">SUM(F2:BH2)</f>
         <v>5</v>
       </c>
       <c r="C2">
@@ -938,48 +1230,64 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">_xlfn.SWITCH(F2, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">_xlfn.SWITCH(H2, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B65" si="0">SUM(F3:AG3)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D65" si="1">IF(B3&lt;5,_xlfn.CEILING.MATH((B3/-2)+C3), _xlfn.CEILING.MATH(B3/-2))</f>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="G3">
-        <v>3</v>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">_xlfn.SWITCH(F3, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">_xlfn.SWITCH(H3, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="AP3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -997,54 +1305,70 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">_xlfn.SWITCH(F4, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">_xlfn.SWITCH(H4, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="X5">
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">_xlfn.SWITCH(F5, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">_xlfn.SWITCH(H5, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
         <v>8</v>
       </c>
-      <c r="AD5">
-        <v>3</v>
-      </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BF5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1062,54 +1386,70 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="X6">
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">_xlfn.SWITCH(F6, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">_xlfn.SWITCH(H6, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="AP6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="G7">
-        <v>3</v>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">_xlfn.SWITCH(F7, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">_xlfn.SWITCH(H7, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1127,17 +1467,25 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">_xlfn.SWITCH(F8, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">_xlfn.SWITCH(H8, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1155,20 +1503,28 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="X9">
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">_xlfn.SWITCH(F9, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">_xlfn.SWITCH(H9, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
         <v>4</v>
       </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="BB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1186,14 +1542,22 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">_xlfn.SWITCH(F10, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">_xlfn.SWITCH(H10, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,20 +1578,28 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="W11">
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">_xlfn.SWITCH(F11, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">_xlfn.SWITCH(H11, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
         <v>7</v>
       </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AP11">
+        <v>2</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1245,17 +1617,25 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="X12">
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">_xlfn.SWITCH(F12, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">_xlfn.SWITCH(H12, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12">
         <v>6</v>
       </c>
-      <c r="AD12">
-        <v>2</v>
-      </c>
-      <c r="AF12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BF12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1273,60 +1653,76 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>3</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">_xlfn.SWITCH(F13, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">_xlfn.SWITCH(H13, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>2</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="G14">
-        <v>3</v>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">_xlfn.SWITCH(F14, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>3</v>
-      </c>
-      <c r="Z14">
-        <v>3</v>
-      </c>
-      <c r="AA14">
-        <v>2</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">_xlfn.SWITCH(H14, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>2</v>
+      </c>
+      <c r="AR14">
+        <v>3</v>
+      </c>
+      <c r="AT14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1344,26 +1740,34 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">_xlfn.SWITCH(F15, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>3</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">_xlfn.SWITCH(H15, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1384,26 +1788,34 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="AB16">
-        <v>3</v>
-      </c>
-      <c r="AC16">
-        <v>2</v>
-      </c>
-      <c r="AD16">
-        <v>3</v>
-      </c>
-      <c r="AE16">
-        <v>3</v>
-      </c>
-      <c r="AF16">
-        <v>3</v>
-      </c>
-      <c r="AG16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">_xlfn.SWITCH(F16, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">_xlfn.SWITCH(H16, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AZ16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BD16">
+        <v>3</v>
+      </c>
+      <c r="BF16">
+        <v>3</v>
+      </c>
+      <c r="BH16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1421,20 +1833,28 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="P17">
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">_xlfn.SWITCH(F17, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">_xlfn.SWITCH(H17, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>4</v>
       </c>
-      <c r="Q17">
+      <c r="AB17">
         <v>4</v>
       </c>
-      <c r="V17">
+      <c r="AL17">
         <v>4</v>
       </c>
-      <c r="AC17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AZ17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1452,17 +1872,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="O18">
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">_xlfn.SWITCH(F18, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">_xlfn.SWITCH(H18, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>4</v>
       </c>
-      <c r="Y18">
-        <v>2</v>
-      </c>
-      <c r="Z18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AR18">
+        <v>2</v>
+      </c>
+      <c r="AT18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
@@ -1480,48 +1908,64 @@
       <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19">
-        <v>2</v>
-      </c>
-      <c r="AG19">
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">_xlfn.SWITCH(F19, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">_xlfn.SWITCH(H19, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BH19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="G20">
-        <v>2</v>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">_xlfn.SWITCH(F20, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">_xlfn.SWITCH(H20, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="AN20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -1539,11 +1983,19 @@
       <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="Y21">
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">_xlfn.SWITCH(F21, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">_xlfn.SWITCH(H21, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1561,11 +2013,19 @@
       <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="Y22">
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">_xlfn.SWITCH(F22, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22">_xlfn.SWITCH(H22, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1583,11 +2043,19 @@
       <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="Y23">
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">_xlfn.SWITCH(F23, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">_xlfn.SWITCH(H23, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1605,11 +2073,19 @@
       <c r="E24" t="s">
         <v>39</v>
       </c>
-      <c r="Y24">
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">_xlfn.SWITCH(F24, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">_xlfn.SWITCH(H24, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1627,11 +2103,19 @@
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="Y25">
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">_xlfn.SWITCH(F25, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" ref="I25">_xlfn.SWITCH(H25, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1649,8 +2133,16 @@
       <c r="E26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">_xlfn.SWITCH(F26, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">_xlfn.SWITCH(H26, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1668,11 +2160,19 @@
       <c r="E27" t="s">
         <v>54</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">_xlfn.SWITCH(F27, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">_xlfn.SWITCH(H27, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1690,14 +2190,22 @@
       <c r="E28" t="s">
         <v>54</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">_xlfn.SWITCH(F28, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" ref="I28">_xlfn.SWITCH(H28, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1715,8 +2223,16 @@
       <c r="E29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">_xlfn.SWITCH(F29, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">_xlfn.SWITCH(H29, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1734,20 +2250,28 @@
       <c r="E30" t="s">
         <v>54</v>
       </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="AA30">
-        <v>3</v>
-      </c>
-      <c r="AC30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">_xlfn.SWITCH(F30, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">_xlfn.SWITCH(H30, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AZ30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -1765,56 +2289,64 @@
       <c r="E31" t="s">
         <v>54</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">_xlfn.SWITCH(F31, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" cm="1">
+        <f t="array" ref="I31">_xlfn.SWITCH(H31, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>1</v>
-      </c>
       <c r="AD31">
         <v>1</v>
       </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
       <c r="AF31">
         <v>1</v>
       </c>
-      <c r="AG31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>1</v>
+      </c>
+      <c r="AZ31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
+      <c r="BD31">
+        <v>1</v>
+      </c>
+      <c r="BF31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1832,17 +2364,25 @@
       <c r="E32" t="s">
         <v>24</v>
       </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">_xlfn.SWITCH(F32, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" cm="1">
+        <f t="array" ref="I32">_xlfn.SWITCH(H32, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="AJ32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1860,16 +2400,24 @@
       <c r="E33" t="s">
         <v>24</v>
       </c>
-      <c r="AF33">
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">_xlfn.SWITCH(F33, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33">_xlfn.SWITCH(H33, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="BF33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B34:B65" si="2">SUM(F34:BH34)</f>
         <v>7</v>
       </c>
       <c r="C34">
@@ -1882,22 +2430,30 @@
       <c r="E34" t="s">
         <v>24</v>
       </c>
-      <c r="P34">
-        <v>2</v>
-      </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
-      <c r="V34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">_xlfn.SWITCH(F34, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" cm="1">
+        <f t="array" ref="I34">_xlfn.SWITCH(H34, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AL34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C35">
@@ -1910,25 +2466,33 @@
       <c r="E35" t="s">
         <v>24</v>
       </c>
-      <c r="Y35">
-        <v>3</v>
-      </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
-      <c r="AA35">
-        <v>2</v>
-      </c>
-      <c r="AC35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">_xlfn.SWITCH(F35, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" cm="1">
+        <f t="array" ref="I35">_xlfn.SWITCH(H35, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>3</v>
+      </c>
+      <c r="AT35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AZ35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C36">
@@ -1941,22 +2505,30 @@
       <c r="E36" t="s">
         <v>24</v>
       </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">_xlfn.SWITCH(F36, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" cm="1">
+        <f t="array" ref="I36">_xlfn.SWITCH(H36, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C37">
@@ -1969,78 +2541,102 @@
       <c r="E37" t="s">
         <v>24</v>
       </c>
-      <c r="AC37">
-        <v>2</v>
-      </c>
-      <c r="AG37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">_xlfn.SWITCH(F37, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" cm="1">
+        <f t="array" ref="I37">_xlfn.SWITCH(H37, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>2</v>
+      </c>
+      <c r="BH37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>24</v>
       </c>
-      <c r="G38">
-        <v>3</v>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">_xlfn.SWITCH(F38, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I38" cm="1">
+        <f t="array" ref="I38">_xlfn.SWITCH(H38, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
       </c>
-      <c r="G39">
-        <v>2</v>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">_xlfn.SWITCH(F39, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I39" cm="1">
+        <f t="array" ref="I39">_xlfn.SWITCH(H39, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="AL39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C40">
@@ -2053,13 +2649,21 @@
       <c r="E40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">_xlfn.SWITCH(F40, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" cm="1">
+        <f t="array" ref="I40">_xlfn.SWITCH(H40, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C41">
@@ -2072,212 +2676,252 @@
       <c r="E41" t="s">
         <v>24</v>
       </c>
-      <c r="S41">
-        <v>3</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="AA41">
-        <v>2</v>
-      </c>
-      <c r="AC41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">_xlfn.SWITCH(F41, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" cm="1">
+        <f t="array" ref="I41">_xlfn.SWITCH(H41, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>3</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AZ41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="E42" t="s">
         <v>53</v>
       </c>
-      <c r="G42">
-        <v>5</v>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">_xlfn.SWITCH(F42, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>5</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="K42">
+      <c r="I42" cm="1">
+        <f t="array" ref="I42">_xlfn.SWITCH(H42, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-10</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="P42">
         <v>4</v>
       </c>
-      <c r="P42">
+      <c r="Z42">
         <v>5</v>
       </c>
-      <c r="Q42">
+      <c r="AB42">
         <v>4</v>
       </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="V42">
+      <c r="AF42">
+        <v>2</v>
+      </c>
+      <c r="AL42">
         <v>5</v>
       </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AP42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="E43" t="s">
         <v>53</v>
       </c>
-      <c r="G43">
-        <v>5</v>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">_xlfn.SWITCH(F43, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>5</v>
       </c>
-      <c r="K43">
+      <c r="I43" cm="1">
+        <f t="array" ref="I43">_xlfn.SWITCH(H43, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-10</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="P43">
         <v>4</v>
       </c>
-      <c r="P43">
+      <c r="Z43">
         <v>5</v>
       </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
-      <c r="V43">
+      <c r="AB43">
+        <v>3</v>
+      </c>
+      <c r="AF43">
+        <v>2</v>
+      </c>
+      <c r="AL43">
         <v>5</v>
       </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AP43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E44" t="s">
         <v>53</v>
       </c>
-      <c r="G44">
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">_xlfn.SWITCH(F44, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>4</v>
       </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="P44">
-        <v>2</v>
-      </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
-      <c r="S44">
-        <v>3</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="X44">
+      <c r="I44" cm="1">
+        <f t="array" ref="I44">_xlfn.SWITCH(H44, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-8</v>
+      </c>
+      <c r="J44">
         <v>2</v>
       </c>
       <c r="Z44">
-        <v>3</v>
-      </c>
-      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
+      </c>
+      <c r="AF44">
+        <v>3</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AT44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
         <v>4</v>
       </c>
-      <c r="AC44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AZ44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E45" t="s">
         <v>53</v>
       </c>
-      <c r="G45">
-        <v>3</v>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">_xlfn.SWITCH(F45, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
-      <c r="S45">
+      <c r="I45" cm="1">
+        <f t="array" ref="I45">_xlfn.SWITCH(H45, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>2</v>
+      </c>
+      <c r="AF45">
         <v>4</v>
       </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Z45">
-        <v>3</v>
-      </c>
-      <c r="AA45">
-        <v>2</v>
-      </c>
-      <c r="AC45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AZ45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C46">
@@ -2290,28 +2934,36 @@
       <c r="E46" t="s">
         <v>58</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>3</v>
-      </c>
-      <c r="N46">
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">_xlfn.SWITCH(F46, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" cm="1">
+        <f t="array" ref="I46">_xlfn.SWITCH(H46, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="V46">
         <v>4</v>
       </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C47">
@@ -2324,160 +2976,192 @@
       <c r="E47" t="s">
         <v>58</v>
       </c>
-      <c r="L47">
-        <v>2</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="P47">
-        <v>3</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">_xlfn.SWITCH(F47, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" cm="1">
+        <f t="array" ref="I47">_xlfn.SWITCH(H47, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E48" t="s">
         <v>58</v>
       </c>
-      <c r="G48">
-        <v>2</v>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">_xlfn.SWITCH(F48, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I48" cm="1">
+        <f t="array" ref="I48">_xlfn.SWITCH(H48, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="BD48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="E49" t="s">
         <v>58</v>
       </c>
-      <c r="G49">
-        <v>3</v>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">_xlfn.SWITCH(F49, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
-      <c r="I49">
+      <c r="I49" cm="1">
+        <f t="array" ref="I49">_xlfn.SWITCH(H49, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="L49">
         <v>5</v>
       </c>
-      <c r="J49">
+      <c r="N49">
         <v>5</v>
       </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="AD49">
-        <v>3</v>
-      </c>
-      <c r="AE49">
-        <v>3</v>
-      </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BD49">
+        <v>3</v>
+      </c>
+      <c r="BF49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
       </c>
-      <c r="G50">
-        <v>2</v>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">_xlfn.SWITCH(F50, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="I50" cm="1">
+        <f t="array" ref="I50">_xlfn.SWITCH(H50, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>2</v>
+      </c>
+      <c r="V50">
         <v>4</v>
       </c>
-      <c r="P50">
-        <v>2</v>
-      </c>
-      <c r="Q50">
-        <v>2</v>
-      </c>
-      <c r="V50">
-        <v>3</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Z50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AL50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C51">
@@ -2493,25 +3177,33 @@
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="R51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>3</v>
-      </c>
-      <c r="AF51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">_xlfn.SWITCH(F51, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" cm="1">
+        <f t="array" ref="I51">_xlfn.SWITCH(H51, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>2</v>
+      </c>
+      <c r="AH51">
+        <v>2</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="BF51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C52">
@@ -2527,30 +3219,38 @@
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="AC52">
-        <v>2</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">_xlfn.SWITCH(F52, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" cm="1">
+        <f t="array" ref="I52">_xlfn.SWITCH(H52, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AZ52">
+        <v>2</v>
+      </c>
+      <c r="BF52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E53" t="s">
         <v>62</v>
@@ -2558,34 +3258,42 @@
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53">
-        <v>2</v>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">_xlfn.SWITCH(F53, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>2</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I53" cm="1">
+        <f t="array" ref="I53">_xlfn.SWITCH(H53, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>2</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C54">
@@ -2598,19 +3306,27 @@
       <c r="E54" t="s">
         <v>62</v>
       </c>
-      <c r="X54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">_xlfn.SWITCH(F54, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" cm="1">
+        <f t="array" ref="I54">_xlfn.SWITCH(H54, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="BH54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C55">
@@ -2623,22 +3339,30 @@
       <c r="E55" t="s">
         <v>62</v>
       </c>
-      <c r="AD55">
-        <v>2</v>
-      </c>
-      <c r="AF55">
-        <v>2</v>
-      </c>
-      <c r="AG55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">_xlfn.SWITCH(F55, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" cm="1">
+        <f t="array" ref="I55">_xlfn.SWITCH(H55, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BF55">
+        <v>2</v>
+      </c>
+      <c r="BH55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C56">
@@ -2654,19 +3378,27 @@
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="X56">
-        <v>2</v>
-      </c>
-      <c r="AG56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">_xlfn.SWITCH(F56, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" cm="1">
+        <f t="array" ref="I56">_xlfn.SWITCH(H56, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="BH56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C57">
@@ -2679,28 +3411,36 @@
       <c r="E57" t="s">
         <v>68</v>
       </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="X57">
-        <v>1</v>
-      </c>
-      <c r="Y57">
-        <v>1</v>
-      </c>
-      <c r="Z57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">_xlfn.SWITCH(F57, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" cm="1">
+        <f t="array" ref="I57">_xlfn.SWITCH(H57, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
+      <c r="AT57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C58">
@@ -2713,70 +3453,86 @@
       <c r="E58" t="s">
         <v>68</v>
       </c>
-      <c r="R58">
-        <v>3</v>
-      </c>
-      <c r="S58">
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">_xlfn.SWITCH(F58, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" cm="1">
+        <f t="array" ref="I58">_xlfn.SWITCH(H58, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>3</v>
+      </c>
+      <c r="AF58">
         <v>5</v>
       </c>
-      <c r="X58">
-        <v>2</v>
-      </c>
-      <c r="Y58">
-        <v>2</v>
-      </c>
-      <c r="Z58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>2</v>
+      </c>
+      <c r="AT58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
-      <c r="G59">
-        <v>2</v>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">_xlfn.SWITCH(F59, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
-      <c r="K59">
+      <c r="I59" cm="1">
+        <f t="array" ref="I59">_xlfn.SWITCH(H59, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="P59">
         <v>4</v>
       </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>69</v>
@@ -2784,13 +3540,21 @@
       <c r="F60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">_xlfn.SWITCH(F60, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>-1</v>
+      </c>
+      <c r="I60" cm="1">
+        <f t="array" ref="I60">_xlfn.SWITCH(H60, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C61">
@@ -2803,33 +3567,41 @@
       <c r="E61" t="s">
         <v>69</v>
       </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="W61">
-        <v>3</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AG61">
+      <c r="G61" cm="1">
+        <f t="array" ref="G61">_xlfn.SWITCH(F61, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" cm="1">
+        <f t="array" ref="I61">_xlfn.SWITCH(H61, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>2</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>1</v>
+      </c>
+      <c r="BH61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E62" t="s">
         <v>69</v>
@@ -2837,22 +3609,30 @@
       <c r="F62">
         <v>6</v>
       </c>
-      <c r="G62">
-        <v>1</v>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62">_xlfn.SWITCH(F62, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>-4</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="X62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I62" cm="1">
+        <f t="array" ref="I62">_xlfn.SWITCH(H62, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>128</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C63">
@@ -2865,19 +3645,27 @@
       <c r="E63" t="s">
         <v>73</v>
       </c>
-      <c r="AC63">
-        <v>1</v>
-      </c>
-      <c r="AD63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G63" cm="1">
+        <f t="array" ref="G63">_xlfn.SWITCH(F63, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" cm="1">
+        <f t="array" ref="I63">_xlfn.SWITCH(H63, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>1</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C64">
@@ -2890,581 +3678,757 @@
       <c r="E64" t="s">
         <v>73</v>
       </c>
-      <c r="AC64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G64" cm="1">
+        <f t="array" ref="G64">_xlfn.SWITCH(F64, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" cm="1">
+        <f t="array" ref="I64">_xlfn.SWITCH(H64, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>122</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E65" t="s">
         <v>73</v>
       </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="L65">
+      <c r="G65" cm="1">
+        <f t="array" ref="G65">_xlfn.SWITCH(F65, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65" cm="1">
+        <f t="array" ref="I65">_xlfn.SWITCH(H65, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
+      </c>
+      <c r="R65">
         <v>6</v>
       </c>
-      <c r="M65">
+      <c r="T65">
         <v>4</v>
       </c>
-      <c r="AG65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="BH65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B85" si="2">SUM(F66:AG66)</f>
+        <f t="shared" ref="B66:B85" si="3">SUM(F66:BH66)</f>
         <v>6</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D85" si="3">IF(B66&lt;5,_xlfn.CEILING.MATH((B66/-2)+C66), _xlfn.CEILING.MATH(B66/-2))</f>
+        <f t="shared" ref="D66:D85" si="4">IF(B66&lt;5,_xlfn.CEILING.MATH((B66/-2)+C66), _xlfn.CEILING.MATH(B66/-2))</f>
         <v>-3</v>
       </c>
       <c r="E66" t="s">
         <v>73</v>
       </c>
-      <c r="L66">
-        <v>2</v>
-      </c>
-      <c r="M66">
-        <v>2</v>
-      </c>
-      <c r="AG66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">_xlfn.SWITCH(F66, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" cm="1">
+        <f t="array" ref="I66">_xlfn.SWITCH(H66, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="BH66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="E67" t="s">
         <v>73</v>
       </c>
-      <c r="M67">
+      <c r="G67" cm="1">
+        <f t="array" ref="G67">_xlfn.SWITCH(F67, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" cm="1">
+        <f t="array" ref="I67">_xlfn.SWITCH(H67, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T67">
         <v>4</v>
       </c>
-      <c r="W67">
-        <v>2</v>
-      </c>
-      <c r="AG67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="BH67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E68" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G68" cm="1">
+        <f t="array" ref="G68">_xlfn.SWITCH(F68, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" cm="1">
+        <f t="array" ref="I68">_xlfn.SWITCH(H68, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E69" t="s">
         <v>73</v>
       </c>
-      <c r="P69">
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">_xlfn.SWITCH(F69, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" cm="1">
+        <f t="array" ref="I69">_xlfn.SWITCH(H69, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z69">
         <v>5</v>
       </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="W69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AF69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
-        <v>-10</v>
+        <f t="shared" si="4"/>
+        <v>-4</v>
       </c>
       <c r="E70" t="s">
         <v>73</v>
       </c>
-      <c r="G70">
-        <v>8</v>
+      <c r="G70" cm="1">
+        <f t="array" ref="G70">_xlfn.SWITCH(F70, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70" cm="1">
+        <f t="array" ref="I70">_xlfn.SWITCH(H70, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-8</v>
+      </c>
+      <c r="J70">
         <v>6</v>
       </c>
-      <c r="K70">
+      <c r="P70">
         <v>5</v>
       </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
-        <v>-10</v>
+        <f t="shared" si="4"/>
+        <v>-5</v>
       </c>
       <c r="E71" t="s">
         <v>73</v>
       </c>
-      <c r="G71">
+      <c r="G71" cm="1">
+        <f t="array" ref="G71">_xlfn.SWITCH(F71, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71" cm="1">
+        <f t="array" ref="I71">_xlfn.SWITCH(H71, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-10</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="P71">
         <v>6</v>
       </c>
-      <c r="H71">
-        <v>4</v>
-      </c>
-      <c r="I71">
-        <v>5</v>
-      </c>
-      <c r="K71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
-        <v>-10</v>
+        <f t="shared" si="4"/>
+        <v>-5</v>
       </c>
       <c r="E72" t="s">
         <v>73</v>
       </c>
-      <c r="G72">
-        <v>7</v>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">_xlfn.SWITCH(F72, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="K72">
         <v>4</v>
       </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72">
+      <c r="I72" cm="1">
+        <f t="array" ref="I72">_xlfn.SWITCH(H72, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-8</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="T72">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
-        <v>-10</v>
+        <f t="shared" si="4"/>
+        <v>-3</v>
       </c>
       <c r="E73" t="s">
         <v>73</v>
       </c>
-      <c r="G73">
-        <v>8</v>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">_xlfn.SWITCH(F73, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="I73" cm="1">
+        <f t="array" ref="I73">_xlfn.SWITCH(H73, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-10</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="P73">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>14</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
-        <v>-3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
         <v>73</v>
       </c>
-      <c r="G74">
-        <v>3</v>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">_xlfn.SWITCH(F74, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I74" cm="1">
+        <f t="array" ref="I74">_xlfn.SWITCH(H74, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
       </c>
-      <c r="M75">
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">_xlfn.SWITCH(F75, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" cm="1">
+        <f t="array" ref="I75">_xlfn.SWITCH(H75, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T75">
         <v>4</v>
       </c>
-      <c r="P75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Z75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
       <c r="E76" t="s">
         <v>73</v>
       </c>
-      <c r="M76">
+      <c r="G76" cm="1">
+        <f t="array" ref="G76">_xlfn.SWITCH(F76, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" cm="1">
+        <f t="array" ref="I76">_xlfn.SWITCH(H76, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T76">
         <v>5</v>
       </c>
-      <c r="N76">
+      <c r="V76">
         <v>5</v>
       </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
       <c r="AF76">
         <v>1</v>
       </c>
-      <c r="AG76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="BF76">
+        <v>1</v>
+      </c>
+      <c r="BH76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
-        <v>-4</v>
+        <f t="shared" si="4"/>
+        <v>-2</v>
       </c>
       <c r="E77" t="s">
         <v>73</v>
       </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
+      <c r="G77" cm="1">
+        <f t="array" ref="G77">_xlfn.SWITCH(F77, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" cm="1">
+        <f t="array" ref="I77">_xlfn.SWITCH(H77, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-4</v>
       </c>
       <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>73</v>
       </c>
-      <c r="Y78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G78" cm="1">
+        <f t="array" ref="G78">_xlfn.SWITCH(F78, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I78" cm="1">
+        <f t="array" ref="I78">_xlfn.SWITCH(H78, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
-        <v>-6</v>
+        <f t="shared" si="4"/>
+        <v>-3</v>
       </c>
       <c r="E79" t="s">
         <v>73</v>
       </c>
-      <c r="G79">
-        <v>3</v>
+      <c r="G79" cm="1">
+        <f t="array" ref="G79">_xlfn.SWITCH(F79, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
-      <c r="L79">
-        <v>2</v>
-      </c>
-      <c r="M79">
-        <v>3</v>
-      </c>
-      <c r="AG79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I79" cm="1">
+        <f t="array" ref="I79">_xlfn.SWITCH(H79, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>-5</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>3</v>
+      </c>
+      <c r="BH79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="E80" t="s">
         <v>73</v>
       </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="P80">
+      <c r="G80" cm="1">
+        <f t="array" ref="G80">_xlfn.SWITCH(F80, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" cm="1">
+        <f t="array" ref="I80">_xlfn.SWITCH(H80, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G81" cm="1">
+        <f t="array" ref="G81">_xlfn.SWITCH(F81, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" cm="1">
+        <f t="array" ref="I81">_xlfn.SWITCH(H81, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E82" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G82" cm="1">
+        <f t="array" ref="G82">_xlfn.SWITCH(F82, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" cm="1">
+        <f t="array" ref="I82">_xlfn.SWITCH(H82, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E83" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G83" cm="1">
+        <f t="array" ref="G83">_xlfn.SWITCH(F83, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I83" cm="1">
+        <f t="array" ref="I83">_xlfn.SWITCH(H83, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G84" cm="1">
+        <f t="array" ref="G84">_xlfn.SWITCH(F84, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" cm="1">
+        <f t="array" ref="I84">_xlfn.SWITCH(H84, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G85" cm="1">
+        <f t="array" ref="G85">_xlfn.SWITCH(F85, 0, 'Vanilla Balancing'!$D$17, 1, 'Vanilla Balancing'!$E$17, 2, 'Vanilla Balancing'!$F$17, 3, 'Vanilla Balancing'!$G$17, 4, 'Vanilla Balancing'!$H$17, 5, 'Vanilla Balancing'!$I$17, 6, 'Vanilla Balancing'!$J$17, 7, 'Vanilla Balancing'!$K$17, 8, 'Vanilla Balancing'!$L$17, 9, 'Vanilla Balancing'!$M$17, 10, 'Vanilla Balancing'!$N$17)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" cm="1">
+        <f t="array" ref="I85">_xlfn.SWITCH(H85, 0, 0, 1, 'Vanilla Balancing'!$I$3, 2, 'Vanilla Balancing'!$J$3, 3, 'Vanilla Balancing'!$K$3, 4, 'Vanilla Balancing'!$L$3, 5, 'Vanilla Balancing'!$M$3, 6, 'Vanilla Balancing'!$N$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
@@ -3495,4 +4459,1251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3C5F15-AC5C-4F40-8434-3C38AA55454A}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-4</v>
+      </c>
+      <c r="K3">
+        <v>-5</v>
+      </c>
+      <c r="L3">
+        <v>-8</v>
+      </c>
+      <c r="M3">
+        <v>-10</v>
+      </c>
+      <c r="N3">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>-4</v>
+      </c>
+      <c r="K4">
+        <v>-5</v>
+      </c>
+      <c r="L4">
+        <v>-8</v>
+      </c>
+      <c r="M4">
+        <v>-10</v>
+      </c>
+      <c r="N4">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
+      <c r="H5">
+        <v>-4</v>
+      </c>
+      <c r="I5">
+        <v>-6</v>
+      </c>
+      <c r="J5">
+        <v>-8</v>
+      </c>
+      <c r="K5">
+        <v>-10</v>
+      </c>
+      <c r="L5">
+        <v>-12</v>
+      </c>
+      <c r="M5">
+        <v>-14</v>
+      </c>
+      <c r="N5">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-4</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6">
+        <v>-8</v>
+      </c>
+      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6">
+        <v>-12</v>
+      </c>
+      <c r="L6">
+        <v>-14</v>
+      </c>
+      <c r="M6">
+        <v>-16</v>
+      </c>
+      <c r="N6">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
+        <v>-8</v>
+      </c>
+      <c r="J7">
+        <v>-10</v>
+      </c>
+      <c r="K7">
+        <v>-12</v>
+      </c>
+      <c r="L7">
+        <v>-14</v>
+      </c>
+      <c r="M7">
+        <v>-16</v>
+      </c>
+      <c r="N7">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <v>-6</v>
+      </c>
+      <c r="I8">
+        <v>-8</v>
+      </c>
+      <c r="J8">
+        <v>-10</v>
+      </c>
+      <c r="K8">
+        <v>-12</v>
+      </c>
+      <c r="L8">
+        <v>-14</v>
+      </c>
+      <c r="M8">
+        <v>-16</v>
+      </c>
+      <c r="N8">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-2</v>
+      </c>
+      <c r="I9">
+        <v>-4</v>
+      </c>
+      <c r="J9">
+        <v>-6</v>
+      </c>
+      <c r="K9">
+        <v>-8</v>
+      </c>
+      <c r="L9">
+        <v>-10</v>
+      </c>
+      <c r="M9">
+        <v>-12</v>
+      </c>
+      <c r="N9">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-2</v>
+      </c>
+      <c r="I10">
+        <v>-4</v>
+      </c>
+      <c r="J10">
+        <v>-6</v>
+      </c>
+      <c r="K10">
+        <v>-8</v>
+      </c>
+      <c r="L10">
+        <v>-10</v>
+      </c>
+      <c r="M10">
+        <v>-12</v>
+      </c>
+      <c r="N10">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-2</v>
+      </c>
+      <c r="I11">
+        <v>-4</v>
+      </c>
+      <c r="J11">
+        <v>-6</v>
+      </c>
+      <c r="K11">
+        <v>-8</v>
+      </c>
+      <c r="L11">
+        <v>-10</v>
+      </c>
+      <c r="M11">
+        <v>-12</v>
+      </c>
+      <c r="N11">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-2</v>
+      </c>
+      <c r="I12">
+        <v>-4</v>
+      </c>
+      <c r="J12">
+        <v>-6</v>
+      </c>
+      <c r="K12">
+        <v>-8</v>
+      </c>
+      <c r="L12">
+        <v>-10</v>
+      </c>
+      <c r="M12">
+        <v>-12</v>
+      </c>
+      <c r="N12">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-2</v>
+      </c>
+      <c r="I13">
+        <v>-4</v>
+      </c>
+      <c r="J13">
+        <v>-6</v>
+      </c>
+      <c r="K13">
+        <v>-8</v>
+      </c>
+      <c r="L13">
+        <v>-10</v>
+      </c>
+      <c r="M13">
+        <v>-12</v>
+      </c>
+      <c r="N13">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-2</v>
+      </c>
+      <c r="I14">
+        <v>-4</v>
+      </c>
+      <c r="J14">
+        <v>-6</v>
+      </c>
+      <c r="K14">
+        <v>-8</v>
+      </c>
+      <c r="L14">
+        <v>-10</v>
+      </c>
+      <c r="M14">
+        <v>-12</v>
+      </c>
+      <c r="N14">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>-2</v>
+      </c>
+      <c r="F15">
+        <v>-4</v>
+      </c>
+      <c r="G15">
+        <v>-6</v>
+      </c>
+      <c r="H15">
+        <v>-8</v>
+      </c>
+      <c r="I15">
+        <v>-10</v>
+      </c>
+      <c r="J15">
+        <v>-12</v>
+      </c>
+      <c r="K15">
+        <v>-14</v>
+      </c>
+      <c r="L15">
+        <v>-16</v>
+      </c>
+      <c r="M15">
+        <v>-18</v>
+      </c>
+      <c r="N15">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>-2</v>
+      </c>
+      <c r="J16">
+        <v>-4</v>
+      </c>
+      <c r="K16">
+        <v>-6</v>
+      </c>
+      <c r="L16">
+        <v>-9</v>
+      </c>
+      <c r="M16">
+        <v>-13</v>
+      </c>
+      <c r="N16">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-2</v>
+      </c>
+      <c r="J17">
+        <v>-4</v>
+      </c>
+      <c r="K17">
+        <v>-6</v>
+      </c>
+      <c r="L17">
+        <v>-9</v>
+      </c>
+      <c r="M17">
+        <v>-13</v>
+      </c>
+      <c r="N17">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>-2</v>
+      </c>
+      <c r="J18">
+        <v>-4</v>
+      </c>
+      <c r="K18">
+        <v>-6</v>
+      </c>
+      <c r="L18">
+        <v>-9</v>
+      </c>
+      <c r="M18">
+        <v>-13</v>
+      </c>
+      <c r="N18">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>-2</v>
+      </c>
+      <c r="J19">
+        <v>-4</v>
+      </c>
+      <c r="K19">
+        <v>-6</v>
+      </c>
+      <c r="L19">
+        <v>-9</v>
+      </c>
+      <c r="M19">
+        <v>-13</v>
+      </c>
+      <c r="N19">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>-2</v>
+      </c>
+      <c r="G20">
+        <v>-4</v>
+      </c>
+      <c r="H20">
+        <v>-6</v>
+      </c>
+      <c r="I20">
+        <v>-10</v>
+      </c>
+      <c r="J20">
+        <v>-12</v>
+      </c>
+      <c r="K20">
+        <v>-14</v>
+      </c>
+      <c r="L20">
+        <v>-16</v>
+      </c>
+      <c r="M20">
+        <v>-18</v>
+      </c>
+      <c r="N20">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>-2</v>
+      </c>
+      <c r="G21">
+        <v>-4</v>
+      </c>
+      <c r="H21">
+        <v>-6</v>
+      </c>
+      <c r="I21">
+        <v>-10</v>
+      </c>
+      <c r="J21">
+        <v>-12</v>
+      </c>
+      <c r="K21">
+        <v>-14</v>
+      </c>
+      <c r="L21">
+        <v>-16</v>
+      </c>
+      <c r="M21">
+        <v>-18</v>
+      </c>
+      <c r="N21">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-2</v>
+      </c>
+      <c r="G22">
+        <v>-4</v>
+      </c>
+      <c r="H22">
+        <v>-6</v>
+      </c>
+      <c r="I22">
+        <v>-10</v>
+      </c>
+      <c r="J22">
+        <v>-12</v>
+      </c>
+      <c r="K22">
+        <v>-14</v>
+      </c>
+      <c r="L22">
+        <v>-16</v>
+      </c>
+      <c r="M22">
+        <v>-18</v>
+      </c>
+      <c r="N22">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>-2</v>
+      </c>
+      <c r="G23">
+        <v>-4</v>
+      </c>
+      <c r="H23">
+        <v>-6</v>
+      </c>
+      <c r="I23">
+        <v>-8</v>
+      </c>
+      <c r="J23">
+        <v>-10</v>
+      </c>
+      <c r="K23">
+        <v>-12</v>
+      </c>
+      <c r="L23">
+        <v>-14</v>
+      </c>
+      <c r="M23">
+        <v>-16</v>
+      </c>
+      <c r="N23">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <v>-2</v>
+      </c>
+      <c r="H24">
+        <v>-4</v>
+      </c>
+      <c r="I24">
+        <v>-6</v>
+      </c>
+      <c r="J24">
+        <v>-8</v>
+      </c>
+      <c r="K24">
+        <v>-10</v>
+      </c>
+      <c r="L24">
+        <v>-12</v>
+      </c>
+      <c r="M24">
+        <v>-14</v>
+      </c>
+      <c r="N24">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>-2</v>
+      </c>
+      <c r="H25">
+        <v>-4</v>
+      </c>
+      <c r="I25">
+        <v>-6</v>
+      </c>
+      <c r="J25">
+        <v>-8</v>
+      </c>
+      <c r="K25">
+        <v>-10</v>
+      </c>
+      <c r="L25">
+        <v>-12</v>
+      </c>
+      <c r="M25">
+        <v>-14</v>
+      </c>
+      <c r="N25">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>-2</v>
+      </c>
+      <c r="H26">
+        <v>-4</v>
+      </c>
+      <c r="I26">
+        <v>-6</v>
+      </c>
+      <c r="J26">
+        <v>-8</v>
+      </c>
+      <c r="K26">
+        <v>-10</v>
+      </c>
+      <c r="L26">
+        <v>-12</v>
+      </c>
+      <c r="M26">
+        <v>-14</v>
+      </c>
+      <c r="N26">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+      <c r="H27">
+        <v>-4</v>
+      </c>
+      <c r="I27">
+        <v>-6</v>
+      </c>
+      <c r="J27">
+        <v>-8</v>
+      </c>
+      <c r="K27">
+        <v>-10</v>
+      </c>
+      <c r="L27">
+        <v>-12</v>
+      </c>
+      <c r="M27">
+        <v>-14</v>
+      </c>
+      <c r="N27">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>-2</v>
+      </c>
+      <c r="H28">
+        <v>-4</v>
+      </c>
+      <c r="I28">
+        <v>-6</v>
+      </c>
+      <c r="J28">
+        <v>-8</v>
+      </c>
+      <c r="K28">
+        <v>-10</v>
+      </c>
+      <c r="L28">
+        <v>-12</v>
+      </c>
+      <c r="M28">
+        <v>-14</v>
+      </c>
+      <c r="N28">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/professions.xlsx
+++ b/professions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Zomboid\mods\DubsProfessionMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E308AE-FF10-4EC6-B927-6728B937253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E023E6B-AD04-4B38-8BAE-9164414BD4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19425" yWindow="-1605" windowWidth="17190" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18555" yWindow="1845" windowWidth="17190" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPM Balancing" sheetId="1" r:id="rId1"/>
@@ -4466,7 +4466,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/professions.xlsx
+++ b/professions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Zomboid\mods\DubsProfessionMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E023E6B-AD04-4B38-8BAE-9164414BD4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226A055-1D30-4783-86CB-C7BBEF6D36F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18555" yWindow="1845" windowWidth="17190" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPM Balancing" sheetId="1" r:id="rId1"/>
@@ -991,8 +991,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3912,14 +3914,14 @@
       </c>
       <c r="B71">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E71" t="s">
         <v>73</v>
@@ -3936,7 +3938,7 @@
         <v>-10</v>
       </c>
       <c r="J71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71">
         <v>5</v>
@@ -4465,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3C5F15-AC5C-4F40-8434-3C38AA55454A}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
